--- a/outputs/sales KPI .xlsx
+++ b/outputs/sales KPI .xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary KPIs" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue by Sales Channel" sheetId="2" r:id="rId2"/>
     <sheet name="Top 10 Customers" sheetId="3" r:id="rId3"/>
     <sheet name="Monthly Revenue" sheetId="4" r:id="rId4"/>
+    <sheet name="Revenue by Branch Code" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>total_orders</t>
   </si>
@@ -160,6 +161,27 @@
   </si>
   <si>
     <t>2020-12</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>revenue_percent</t>
+  </si>
+  <si>
+    <t>MHD004</t>
+  </si>
+  <si>
+    <t>ISF002</t>
+  </si>
+  <si>
+    <t>TBZ005</t>
+  </si>
+  <si>
+    <t>SHZ003</t>
+  </si>
+  <si>
+    <t>TEH001</t>
   </si>
 </sst>
 </file>
@@ -757,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1034,4 +1056,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3">
+        <v>17577463.399999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1660</v>
+      </c>
+      <c r="D2" s="3">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16812732.100000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1647</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>16437873.800000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1563</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16007197.800000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1565</v>
+      </c>
+      <c r="D5" s="3">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15857459.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1556</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>